--- a/data/trans_orig/APOYO_SOCIAL_OSLO_CAT-Clase-trans_orig.xlsx
+++ b/data/trans_orig/APOYO_SOCIAL_OSLO_CAT-Clase-trans_orig.xlsx
@@ -543,7 +543,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Apoyo social categorias OSLO en Barcelona</t>
+          <t>Apoyo social categorias OSLO en Barcelona (tasa de respuesta: 97,86%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/APOYO_SOCIAL_OSLO_CAT-Clase-trans_orig.xlsx
+++ b/data/trans_orig/APOYO_SOCIAL_OSLO_CAT-Clase-trans_orig.xlsx
@@ -738,12 +738,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>63620</t>
+          <t>63461</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>81342</t>
+          <t>81425</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -753,12 +753,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>32,23%</t>
+          <t>32,15%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>41,21%</t>
+          <t>41,25%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -773,12 +773,12 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>85654</t>
+          <t>84698</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>104429</t>
+          <t>103853</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -788,12 +788,12 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>41,93%</t>
+          <t>41,46%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>51,12%</t>
+          <t>50,83%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -808,12 +808,12 @@
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>153948</t>
+          <t>153802</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>180785</t>
+          <t>180488</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -823,12 +823,12 @@
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>38,33%</t>
+          <t>38,29%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>45,01%</t>
+          <t>44,93%</t>
         </is>
       </c>
     </row>
@@ -851,12 +851,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>102010</t>
+          <t>102808</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>120099</t>
+          <t>120757</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -866,12 +866,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>51,68%</t>
+          <t>52,09%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>60,85%</t>
+          <t>61,18%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -886,12 +886,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>87842</t>
+          <t>88177</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>107129</t>
+          <t>108016</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -901,12 +901,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>43,0%</t>
+          <t>43,16%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>52,44%</t>
+          <t>52,87%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -921,12 +921,12 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>194463</t>
+          <t>195426</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>222852</t>
+          <t>222717</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -936,12 +936,12 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>48,41%</t>
+          <t>48,65%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>55,48%</t>
+          <t>55,45%</t>
         </is>
       </c>
     </row>
@@ -964,12 +964,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>9066</t>
+          <t>8957</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>19021</t>
+          <t>18630</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -979,12 +979,12 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>4,59%</t>
+          <t>4,54%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>9,64%</t>
+          <t>9,44%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -999,12 +999,12 @@
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>7901</t>
+          <t>7503</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>17447</t>
+          <t>17198</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -1014,12 +1014,12 @@
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>3,87%</t>
+          <t>3,67%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>8,54%</t>
+          <t>8,42%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
@@ -1034,12 +1034,12 @@
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>18999</t>
+          <t>19265</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>31947</t>
+          <t>32072</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -1049,12 +1049,12 @@
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>4,73%</t>
+          <t>4,8%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>7,95%</t>
+          <t>7,98%</t>
         </is>
       </c>
     </row>
@@ -1194,12 +1194,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>35575</t>
+          <t>35151</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>50472</t>
+          <t>50585</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -1209,12 +1209,12 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>29,78%</t>
+          <t>29,42%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>42,25%</t>
+          <t>42,34%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -1229,12 +1229,12 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>60549</t>
+          <t>60906</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>77248</t>
+          <t>77530</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -1244,12 +1244,12 @@
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>36,83%</t>
+          <t>37,05%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>46,99%</t>
+          <t>47,16%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -1264,12 +1264,12 @@
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>99462</t>
+          <t>100315</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>122144</t>
+          <t>123631</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -1279,12 +1279,12 @@
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>35,04%</t>
+          <t>35,34%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>43,03%</t>
+          <t>43,55%</t>
         </is>
       </c>
     </row>
@@ -1307,12 +1307,12 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>59784</t>
+          <t>60041</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>74708</t>
+          <t>75384</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1322,12 +1322,12 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>50,05%</t>
+          <t>50,26%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>62,54%</t>
+          <t>63,1%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1342,12 +1342,12 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>73516</t>
+          <t>72967</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>89996</t>
+          <t>90193</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1357,12 +1357,12 @@
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>44,72%</t>
+          <t>44,38%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>54,74%</t>
+          <t>54,86%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
@@ -1377,12 +1377,12 @@
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>138579</t>
+          <t>137571</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>161314</t>
+          <t>160778</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -1392,12 +1392,12 @@
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>48,82%</t>
+          <t>48,46%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>56,83%</t>
+          <t>56,64%</t>
         </is>
       </c>
     </row>
@@ -1420,12 +1420,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>5653</t>
+          <t>5866</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>13723</t>
+          <t>14228</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1435,12 +1435,12 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>4,73%</t>
+          <t>4,91%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>11,49%</t>
+          <t>11,91%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1455,12 +1455,12 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>9366</t>
+          <t>8971</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>19770</t>
+          <t>19775</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -1470,12 +1470,12 @@
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>5,7%</t>
+          <t>5,46%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>12,02%</t>
+          <t>12,03%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -1490,12 +1490,12 @@
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>16827</t>
+          <t>17516</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>30607</t>
+          <t>31347</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -1505,12 +1505,12 @@
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>5,93%</t>
+          <t>6,17%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>10,78%</t>
+          <t>11,04%</t>
         </is>
       </c>
     </row>
@@ -1650,12 +1650,12 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>26674</t>
+          <t>26763</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>40932</t>
+          <t>40700</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1665,12 +1665,12 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>31,02%</t>
+          <t>31,13%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>47,61%</t>
+          <t>47,34%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -1685,12 +1685,12 @@
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>12130</t>
+          <t>11637</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>20815</t>
+          <t>20507</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -1700,12 +1700,12 @@
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>28,38%</t>
+          <t>27,23%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>48,7%</t>
+          <t>47,98%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
@@ -1720,12 +1720,12 @@
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>40633</t>
+          <t>40994</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>57921</t>
+          <t>57668</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -1735,12 +1735,12 @@
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>31,57%</t>
+          <t>31,85%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>45,0%</t>
+          <t>44,8%</t>
         </is>
       </c>
     </row>
@@ -1763,12 +1763,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>33844</t>
+          <t>34080</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>48861</t>
+          <t>48381</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1778,12 +1778,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>39,36%</t>
+          <t>39,64%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>56,83%</t>
+          <t>56,27%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1798,12 +1798,12 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>14054</t>
+          <t>14073</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>23697</t>
+          <t>23399</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1813,12 +1813,12 @@
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>32,88%</t>
+          <t>32,93%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>55,44%</t>
+          <t>54,75%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -1833,12 +1833,12 @@
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>51547</t>
+          <t>51947</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>69718</t>
+          <t>68771</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -1848,12 +1848,12 @@
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>40,04%</t>
+          <t>40,36%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>54,16%</t>
+          <t>53,43%</t>
         </is>
       </c>
     </row>
@@ -1876,12 +1876,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>7229</t>
+          <t>7093</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>18054</t>
+          <t>17085</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1891,12 +1891,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>8,41%</t>
+          <t>8,25%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>21,0%</t>
+          <t>19,87%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1911,12 +1911,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>4710</t>
+          <t>4573</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>12061</t>
+          <t>11923</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -1926,12 +1926,12 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>11,02%</t>
+          <t>10,7%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>28,22%</t>
+          <t>27,9%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -1946,12 +1946,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>13185</t>
+          <t>13442</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>26082</t>
+          <t>26272</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -1961,12 +1961,12 @@
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>10,24%</t>
+          <t>10,44%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>20,26%</t>
+          <t>20,41%</t>
         </is>
       </c>
     </row>
@@ -2106,12 +2106,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>32111</t>
+          <t>32275</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>49815</t>
+          <t>49070</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -2121,12 +2121,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>22,04%</t>
+          <t>22,15%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>34,18%</t>
+          <t>33,67%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -2141,12 +2141,12 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>42264</t>
+          <t>43036</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>60449</t>
+          <t>60804</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
@@ -2156,12 +2156,12 @@
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>29,04%</t>
+          <t>29,58%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>41,54%</t>
+          <t>41,79%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -2176,12 +2176,12 @@
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>80379</t>
+          <t>79576</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>105159</t>
+          <t>103973</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
@@ -2191,12 +2191,12 @@
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>27,6%</t>
+          <t>27,32%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>36,11%</t>
+          <t>35,7%</t>
         </is>
       </c>
     </row>
@@ -2219,12 +2219,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>76995</t>
+          <t>77430</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>95719</t>
+          <t>97056</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -2234,12 +2234,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>52,83%</t>
+          <t>53,13%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>65,68%</t>
+          <t>66,6%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -2254,12 +2254,12 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>58196</t>
+          <t>58946</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>78514</t>
+          <t>77761</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -2269,12 +2269,12 @@
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>39,99%</t>
+          <t>40,51%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>53,96%</t>
+          <t>53,44%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -2289,12 +2289,12 @@
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>139928</t>
+          <t>141297</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>167737</t>
+          <t>168875</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
@@ -2304,12 +2304,12 @@
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>48,05%</t>
+          <t>48,52%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>57,59%</t>
+          <t>57,98%</t>
         </is>
       </c>
     </row>
@@ -2332,12 +2332,12 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>12809</t>
+          <t>12784</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>26557</t>
+          <t>26598</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -2347,12 +2347,12 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>8,79%</t>
+          <t>8,77%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>18,22%</t>
+          <t>18,25%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -2367,12 +2367,12 @@
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>18913</t>
+          <t>19659</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>35797</t>
+          <t>34288</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -2382,12 +2382,12 @@
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
-          <t>13,0%</t>
+          <t>13,51%</t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>24,6%</t>
+          <t>23,56%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
@@ -2402,12 +2402,12 @@
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>34432</t>
+          <t>35028</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>55459</t>
+          <t>56384</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -2417,12 +2417,12 @@
       </c>
       <c r="V18" s="2" t="inlineStr">
         <is>
-          <t>11,82%</t>
+          <t>12,03%</t>
         </is>
       </c>
       <c r="W18" s="2" t="inlineStr">
         <is>
-          <t>19,04%</t>
+          <t>19,36%</t>
         </is>
       </c>
     </row>
@@ -2562,12 +2562,12 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>8162</t>
+          <t>7863</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>17581</t>
+          <t>17485</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -2577,12 +2577,12 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>17,04%</t>
+          <t>16,42%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>36,71%</t>
+          <t>36,51%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -2597,12 +2597,12 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>22200</t>
+          <t>22180</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>36092</t>
+          <t>36049</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
@@ -2612,12 +2612,12 @@
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>27,13%</t>
+          <t>27,1%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>44,11%</t>
+          <t>44,05%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -2632,12 +2632,12 @@
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>32753</t>
+          <t>32859</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>50347</t>
+          <t>50205</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
@@ -2647,12 +2647,12 @@
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>25,25%</t>
+          <t>25,33%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>38,81%</t>
+          <t>38,7%</t>
         </is>
       </c>
     </row>
@@ -2675,12 +2675,12 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>22776</t>
+          <t>22348</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>33367</t>
+          <t>32982</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -2690,12 +2690,12 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>47,56%</t>
+          <t>46,67%</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>69,68%</t>
+          <t>68,88%</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -2710,12 +2710,12 @@
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>30248</t>
+          <t>30596</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>44882</t>
+          <t>44528</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -2725,12 +2725,12 @@
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>36,96%</t>
+          <t>37,39%</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>54,85%</t>
+          <t>54,41%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
@@ -2745,12 +2745,12 @@
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>56440</t>
+          <t>55891</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>75241</t>
+          <t>75624</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -2760,12 +2760,12 @@
       </c>
       <c r="V21" s="2" t="inlineStr">
         <is>
-          <t>43,51%</t>
+          <t>43,09%</t>
         </is>
       </c>
       <c r="W21" s="2" t="inlineStr">
         <is>
-          <t>58,0%</t>
+          <t>58,3%</t>
         </is>
       </c>
     </row>
@@ -2788,12 +2788,12 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>4063</t>
+          <t>4140</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>11895</t>
+          <t>11705</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -2803,12 +2803,12 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>8,48%</t>
+          <t>8,65%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>24,84%</t>
+          <t>24,44%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -2823,12 +2823,12 @@
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>10608</t>
+          <t>10328</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>22532</t>
+          <t>22078</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
@@ -2838,12 +2838,12 @@
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>12,96%</t>
+          <t>12,62%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>27,54%</t>
+          <t>26,98%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -2858,12 +2858,12 @@
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>16189</t>
+          <t>16138</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>31203</t>
+          <t>30674</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
@@ -2873,12 +2873,12 @@
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>12,48%</t>
+          <t>12,44%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>24,05%</t>
+          <t>23,65%</t>
         </is>
       </c>
     </row>
@@ -3018,12 +3018,12 @@
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>3839</t>
+          <t>3930</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>10109</t>
+          <t>10086</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -3033,12 +3033,12 @@
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>15,19%</t>
+          <t>15,56%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>40,02%</t>
+          <t>39,93%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
@@ -3053,12 +3053,12 @@
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>14738</t>
+          <t>15222</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>24227</t>
+          <t>24533</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -3068,12 +3068,12 @@
       </c>
       <c r="O24" s="2" t="inlineStr">
         <is>
-          <t>29,79%</t>
+          <t>30,76%</t>
         </is>
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>48,96%</t>
+          <t>49,58%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
@@ -3088,12 +3088,12 @@
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>20369</t>
+          <t>21091</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>32201</t>
+          <t>32185</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -3103,12 +3103,12 @@
       </c>
       <c r="V24" s="2" t="inlineStr">
         <is>
-          <t>27,25%</t>
+          <t>28,22%</t>
         </is>
       </c>
       <c r="W24" s="2" t="inlineStr">
         <is>
-          <t>43,08%</t>
+          <t>43,06%</t>
         </is>
       </c>
     </row>
@@ -3131,12 +3131,12 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>9723</t>
+          <t>9721</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>16801</t>
+          <t>17017</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
@@ -3146,12 +3146,12 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>38,49%</t>
+          <t>38,48%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>66,5%</t>
+          <t>67,36%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
@@ -3166,12 +3166,12 @@
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>20708</t>
+          <t>20527</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>30719</t>
+          <t>30732</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
@@ -3181,12 +3181,12 @@
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>41,85%</t>
+          <t>41,48%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>62,08%</t>
+          <t>62,11%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
@@ -3201,12 +3201,12 @@
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>33285</t>
+          <t>33106</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>45836</t>
+          <t>45205</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
@@ -3216,12 +3216,12 @@
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>44,53%</t>
+          <t>44,29%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>61,32%</t>
+          <t>60,48%</t>
         </is>
       </c>
     </row>
@@ -3244,12 +3244,12 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>2299</t>
+          <t>2340</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>10921</t>
+          <t>10577</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
@@ -3259,12 +3259,12 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>9,1%</t>
+          <t>9,26%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>43,23%</t>
+          <t>41,87%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -3279,12 +3279,12 @@
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>2207</t>
+          <t>2101</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>8381</t>
+          <t>8515</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
@@ -3294,12 +3294,12 @@
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>4,46%</t>
+          <t>4,25%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>16,94%</t>
+          <t>17,21%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -3314,12 +3314,12 @@
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>5340</t>
+          <t>5512</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>15113</t>
+          <t>16044</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
@@ -3329,12 +3329,12 @@
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>7,14%</t>
+          <t>7,38%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>20,22%</t>
+          <t>21,47%</t>
         </is>
       </c>
     </row>
@@ -3474,12 +3474,12 @@
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>193020</t>
+          <t>189280</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>226944</t>
+          <t>224294</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
@@ -3489,12 +3489,12 @@
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>31,05%</t>
+          <t>30,45%</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>36,5%</t>
+          <t>36,08%</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
@@ -3509,12 +3509,12 @@
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>261430</t>
+          <t>261180</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
         <is>
-          <t>298663</t>
+          <t>299063</t>
         </is>
       </c>
       <c r="N28" s="2" t="inlineStr">
@@ -3524,12 +3524,12 @@
       </c>
       <c r="O28" s="2" t="inlineStr">
         <is>
-          <t>37,98%</t>
+          <t>37,95%</t>
         </is>
       </c>
       <c r="P28" s="2" t="inlineStr">
         <is>
-          <t>43,39%</t>
+          <t>43,45%</t>
         </is>
       </c>
       <c r="Q28" s="2" t="inlineStr">
@@ -3544,12 +3544,12 @@
       </c>
       <c r="S28" s="2" t="inlineStr">
         <is>
-          <t>461047</t>
+          <t>463370</t>
         </is>
       </c>
       <c r="T28" s="2" t="inlineStr">
         <is>
-          <t>513343</t>
+          <t>513185</t>
         </is>
       </c>
       <c r="U28" s="2" t="inlineStr">
@@ -3559,12 +3559,12 @@
       </c>
       <c r="V28" s="2" t="inlineStr">
         <is>
-          <t>35,2%</t>
+          <t>35,37%</t>
         </is>
       </c>
       <c r="W28" s="2" t="inlineStr">
         <is>
-          <t>39,19%</t>
+          <t>39,18%</t>
         </is>
       </c>
     </row>
@@ -3587,12 +3587,12 @@
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>329858</t>
+          <t>330910</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>365611</t>
+          <t>368768</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
@@ -3602,12 +3602,12 @@
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>53,06%</t>
+          <t>53,23%</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>58,81%</t>
+          <t>59,32%</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
@@ -3622,12 +3622,12 @@
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>310051</t>
+          <t>312753</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>350277</t>
+          <t>350205</t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr">
@@ -3637,12 +3637,12 @@
       </c>
       <c r="O29" s="2" t="inlineStr">
         <is>
-          <t>45,05%</t>
+          <t>45,44%</t>
         </is>
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>50,89%</t>
+          <t>50,88%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
@@ -3657,12 +3657,12 @@
       </c>
       <c r="S29" s="2" t="inlineStr">
         <is>
-          <t>652393</t>
+          <t>651280</t>
         </is>
       </c>
       <c r="T29" s="2" t="inlineStr">
         <is>
-          <t>703318</t>
+          <t>705527</t>
         </is>
       </c>
       <c r="U29" s="2" t="inlineStr">
@@ -3672,12 +3672,12 @@
       </c>
       <c r="V29" s="2" t="inlineStr">
         <is>
-          <t>49,8%</t>
+          <t>49,72%</t>
         </is>
       </c>
       <c r="W29" s="2" t="inlineStr">
         <is>
-          <t>53,69%</t>
+          <t>53,86%</t>
         </is>
       </c>
     </row>
@@ -3700,12 +3700,12 @@
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>53684</t>
+          <t>53876</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>78628</t>
+          <t>78819</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
@@ -3715,12 +3715,12 @@
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>8,64%</t>
+          <t>8,67%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>12,65%</t>
+          <t>12,68%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
@@ -3735,12 +3735,12 @@
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>66807</t>
+          <t>66273</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>92128</t>
+          <t>93831</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
@@ -3750,12 +3750,12 @@
       </c>
       <c r="O30" s="2" t="inlineStr">
         <is>
-          <t>9,71%</t>
+          <t>9,63%</t>
         </is>
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>13,39%</t>
+          <t>13,63%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
@@ -3770,12 +3770,12 @@
       </c>
       <c r="S30" s="2" t="inlineStr">
         <is>
-          <t>126290</t>
+          <t>127823</t>
         </is>
       </c>
       <c r="T30" s="2" t="inlineStr">
         <is>
-          <t>162431</t>
+          <t>164567</t>
         </is>
       </c>
       <c r="U30" s="2" t="inlineStr">
@@ -3785,12 +3785,12 @@
       </c>
       <c r="V30" s="2" t="inlineStr">
         <is>
-          <t>9,64%</t>
+          <t>9,76%</t>
         </is>
       </c>
       <c r="W30" s="2" t="inlineStr">
         <is>
-          <t>12,4%</t>
+          <t>12,56%</t>
         </is>
       </c>
     </row>
